--- a/Excel/DynamicEntityConfig.xlsx
+++ b/Excel/DynamicEntityConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>挂载的Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -128,11 +132,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -140,17 +141,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,71 +451,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F7"/>
+  <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="7"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
